--- a/03_notes/ML_Glossary.xlsx
+++ b/03_notes/ML_Glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8c87c2abe5887b/Workspace/Work/03_UA/04_Research/01_github/ML_HydroSciences/03_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{2425A480-D299-884F-AA35-A5F0C4D2D508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6918ECE-67C9-D94F-8BE0-74FF31F6E077}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="8_{2425A480-D299-884F-AA35-A5F0C4D2D508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F462915-2EFD-0140-AE5D-BB5C542B82BE}"/>
   <bookViews>
-    <workbookView xWindow="25900" yWindow="520" windowWidth="25480" windowHeight="26580" xr2:uid="{EE0297C1-E294-F44C-92F6-BECB8D1F94D9}"/>
+    <workbookView xWindow="460" yWindow="520" windowWidth="25480" windowHeight="26580" xr2:uid="{EE0297C1-E294-F44C-92F6-BECB8D1F94D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="193">
   <si>
     <t>Term</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Backpropogation</t>
   </si>
   <si>
-    <t>A fast method for computing the loss function. For more information: http://neuralnetworksanddeeplearning.com/chap2.html</t>
-  </si>
-  <si>
     <t>the # of neurons (cells, units) in a 'layer' is called the 'width' of the netowrk. The number of layers is called the 'depth' of the network. A deep network implies a large depth</t>
   </si>
   <si>
@@ -241,12 +238,412 @@
   <si>
     <t>Additional Stuff</t>
   </si>
+  <si>
+    <t>Keras</t>
+  </si>
+  <si>
+    <t>A python ML and DL package</t>
+  </si>
+  <si>
+    <t>TensorFlow</t>
+  </si>
+  <si>
+    <t>A google-built, production-grade deep learning package</t>
+  </si>
+  <si>
+    <t>PyTorch</t>
+  </si>
+  <si>
+    <t>The up and coming Python ML and DL package</t>
+  </si>
+  <si>
+    <t>Abstract Syntax Tree</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Abstract_syntax_tree</t>
+  </si>
+  <si>
+    <t>a tree representatino of the anstract syntactctice structure of source code written in a programming language. Abstract in the sense of not including all code (kind of like Pseudo Code)</t>
+  </si>
+  <si>
+    <t>a class for running tensorflow operations</t>
+  </si>
+  <si>
+    <t>Session - TensorFlow</t>
+  </si>
+  <si>
+    <t>context manager</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>Py - TensorFlow</t>
+  </si>
+  <si>
+    <t>Used with 'with' statements - allow you to allocate and release resources precisely when you want to. Most common - 'with statement'. Common use is opening and closing files/resources</t>
+  </si>
+  <si>
+    <t>https://book.pythontips.com/en/latest/context_managers.html</t>
+  </si>
+  <si>
+    <t>eager execution</t>
+  </si>
+  <si>
+    <t>an imperative programming environment that evaluates operations immediately, without building graphs: operations return concrete values instead of constructing a computational graph to run later. This makes it easy to get started with TensorFlow and debug models, and reduces boilerplate code</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/guide/eager</t>
+  </si>
+  <si>
+    <t>Py - PyTorch</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>A framework for doing fast computation in C</t>
+  </si>
+  <si>
+    <t>http://torch.ch/</t>
+  </si>
+  <si>
+    <t>Lua</t>
+  </si>
+  <si>
+    <t>a type of wrapper used to construcct models in PyTorch</t>
+  </si>
+  <si>
+    <t>https://www.lua.org/about.html</t>
+  </si>
+  <si>
+    <t>torch-Tensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the core tensor object in PyTorch which is super integrated and convertible to Numpy arrays. </t>
+  </si>
+  <si>
+    <t>backward()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">computes the gradient (for backpropogation) used in DL models </t>
+  </si>
+  <si>
+    <t>https://pytorch.org/docs/stable/autograd.html#torch.Tensor.backward</t>
+  </si>
+  <si>
+    <t>CUDA</t>
+  </si>
+  <si>
+    <t>PyTorch is Cuda Compatabile. CUDA is Compute Unified Device Architecture, a parallel computing platform and API allowing for GPU use</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/CUDA</t>
+  </si>
+  <si>
+    <t>https://pytorch.org/tutorials/beginner/blitz/autograd_tutorial.html</t>
+  </si>
+  <si>
+    <t>AutoDiffernetiation</t>
+  </si>
+  <si>
+    <t>Autograd automatically calculates the gradient of the functions in torch.nn during backpropogation</t>
+  </si>
+  <si>
+    <t>fast.ai API</t>
+  </si>
+  <si>
+    <t>The super-useful API used by pytorch</t>
+  </si>
+  <si>
+    <t>https://www.fast.ai/</t>
+  </si>
+  <si>
+    <t>TouchServe</t>
+  </si>
+  <si>
+    <t>a flexible and easy to use tool for serving PyTorch models</t>
+  </si>
+  <si>
+    <t>https://github.com/pytorch/serve</t>
+  </si>
+  <si>
+    <t>TouchElastic</t>
+  </si>
+  <si>
+    <t>training deep neural networks at scale using Kubernetes</t>
+  </si>
+  <si>
+    <t>https://pytorch.org/elastic/0.2.0rc0/kubernetes.html</t>
+  </si>
+  <si>
+    <t>Kubernates</t>
+  </si>
+  <si>
+    <t>Used by the above</t>
+  </si>
+  <si>
+    <t>https://github.com/pytorch/elastic/tree/master/kubernetes</t>
+  </si>
+  <si>
+    <t>PyTorch HUB</t>
+  </si>
+  <si>
+    <t>A community of research using pytorch</t>
+  </si>
+  <si>
+    <t>https://pytorch.org/hub/research-models</t>
+  </si>
+  <si>
+    <t>ReLU Network</t>
+  </si>
+  <si>
+    <t>https://medium.com/@danqing/a-practical-guide-to-relu-b83ca804f1f7</t>
+  </si>
+  <si>
+    <t>Activation Function</t>
+  </si>
+  <si>
+    <t>e.g. ReLU (rectified linear unit), sigmoid, tanh. This is the function that does the transformation on the input within a given node to generate a given output</t>
+  </si>
+  <si>
+    <t>Sprasity (model)</t>
+  </si>
+  <si>
+    <t>Not to be confused with data sparsity, which is usually bad. Model sparsity is often desirable (kind of like minimizin the number of neurons required to do a certain task). Results in concise models that often have better predictive power and less overfitting / noise. In a sparse network, its more likely that neurons are actually processing meaningful aspects of the problem. Additionally, this type of network is faster than a dense network</t>
+  </si>
+  <si>
+    <t>ReLU stands for rectified linear unit, and is a type of activation function. Mathematically, it is defined as y = max(0, x). Visually, it looks like the following: ReLU is the most commonly used activation function in neural networks, especially in CNNs. If you are unsure what activation function to use in your network, ReLU is usually a good first choice. Because its uncomplicated (cheap), converges quickly (no vanishing gradient, like sigmoid or tanh (other types of activation functions). Sparsely Activated. Downside, any negative input will generate an output of '0', which results in neuron 'death'. Over time you may end up with a large part of your network doing nothing.</t>
+  </si>
+  <si>
+    <t>Dying ReLU</t>
+  </si>
+  <si>
+    <t>A ReLU neuron is “dead” if it’s stuck in the negative side and always outputs 0. Because the slope of ReLU in the negative range is also 0, once a neuron gets negative, it’s unlikely for it to recover. Such neurons are not playing any role in discriminating the input and is essentially useless. Over the time you may end up with a large part of your network doing nothing. The dying problem is likely to occur when learning rate is too high or there is a large negative bias. Lower learning rates often mitigates the problem. If not, leaky ReLU and ELU are also good alternatives to try. They have a slight slope in the negative range, thereby preventing the issue.</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>https://machinelearningmastery.com/understand-the-dynamics-of-learning-rate-on-deep-learning-neural-networks/</t>
+  </si>
+  <si>
+    <t>The learning rate is a hyperparameter that controls how much to change the model in response to the estimated error each time the model weights are updated. Choosing the learning rate is challenging as a value too small may result in a long training process that could get stuck, whereas a value too large may result in learning a sub-optimal set of weights too fast or an unstable training process. **This is one of the most important hyperparameters when configuring a neural network**</t>
+  </si>
+  <si>
+    <t>backward pass</t>
+  </si>
+  <si>
+    <t>forward pass</t>
+  </si>
+  <si>
+    <t>automatic differentiation</t>
+  </si>
+  <si>
+    <t>Computational graph</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/36740533/what-are-forward-and-backward-passes-in-neural-networks</t>
+  </si>
+  <si>
+    <t>In backpropogation: "backward pass" refers to process of counting changes in weights (de facto learning), using gradient descent algorithm (or similar). Computation is made from last layer, backward to the first layer.</t>
+  </si>
+  <si>
+    <t>The "forward pass" refers to calculation process, values of the output layers from the inputs data. It's traversing through all neurons from first to last layer. A loss function is calculated from the output values</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>One backward and forward pass together = one iteration</t>
+  </si>
+  <si>
+    <t>minibatch</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>During one iteration, you usually pass a subset of the data set, which is called "mini-batch"
+(if you pass all data at once, it is called "batch")</t>
+  </si>
+  <si>
+    <t>"Epoch" means passing the entire data set. One epoch contains number_of_items/batch_size iterations</t>
+  </si>
+  <si>
+    <t>gate</t>
+  </si>
+  <si>
+    <t>https://deepai.org/machine-learning-glossary-and-terms/gated-neural-network</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>https://developer.nvidia.com/blog/deep-learning-nutshell-core-concepts/#:~:text=in%20deep%20learning.-,Layer,output%20to%20the%20next%20layer.</t>
+  </si>
+  <si>
+    <t>A layer is the highest-level building block in deep learning. A layer is a container that usually receives weighted input, transforms it with a set of mostly non-linear functions and then passes these values as output to the next layer.</t>
+  </si>
+  <si>
+    <t>A node, also called a neuron or Perceptron, is a computational unit that has one or more weighted input connections, a transfer function that combines the inputs in some way, and an output connection. Nodes are then organized into layers to comprise a network</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Nodes are then organized into layers to comprise a network</t>
+  </si>
+  <si>
+    <t>A gate in a neural network acts as a threshold for helping the network to distinguish when to use normal stacked layers versus an identity connection. In short, it allows for the layers of the network to learn in increments, rather than creating transformations from scratch. The gate in the neural network is used to decide whether the network can use the shortened identity connections, or if it will need to use the stacked layers. A single-layer artificial neural network, also called a single-layer, has a single layer of nodes, as its name suggests. Each node in the single layer connects directly to an input variable and contributes to an output variable.</t>
+  </si>
+  <si>
+    <t>https://machinelearningmastery.com/how-to-configure-the-number-of-layers-and-nodes-in-a-neural-network/</t>
+  </si>
+  <si>
+    <t>Input Layer</t>
+  </si>
+  <si>
+    <t>Hidden Layer</t>
+  </si>
+  <si>
+    <t>Output Layer</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Input Layer: Input variables, sometimes called the visible layer.</t>
+  </si>
+  <si>
+    <t>Hidden Layers: Layers of nodes between the input and output layers. There may be one or more of these layers.</t>
+  </si>
+  <si>
+    <t>Output Layer: A layer of nodes that produce the output variables.</t>
+  </si>
+  <si>
+    <t>Size: The number of nodes in the model.</t>
+  </si>
+  <si>
+    <t>Width: The number of nodes in a specific layer.</t>
+  </si>
+  <si>
+    <t>Depth: The number of layers in a neural network.</t>
+  </si>
+  <si>
+    <t>Capacity: The type or structure of functions that can be learned by a network configuration. Sometimes called “representational capacity“.</t>
+  </si>
+  <si>
+    <t>Architecture: The specific arrangement of the layers and nodes in the network.</t>
+  </si>
+  <si>
+    <t>https://machinelearningmastery.com/how-to-configure-the-number-of-layers-and-nodes-in-a-neural-network/#:~:text=A%20node%2C%20also%20called%20a,layers%20to%20comprise%20a%20network.</t>
+  </si>
+  <si>
+    <t>Shen, 2018, 
+http://neuralnetworksanddeeplearning.com/chap2.html
+https://cs231n.github.io/optimization-2/</t>
+  </si>
+  <si>
+    <t>A fast method for computing the loss function. Backpropagation is a beautifully local process. Every gate in a circuit diagram gets some inputs and can right away compute two things: 1. its output value and 2. the local gradient of its output with respect to its inputs. Notice that the gates can do this completely independently without being aware of any of the details of the full circuit that they are embedded in. However, once the forward pass is over, during backpropagation the gate will eventually learn about the gradient of its output value on the final output of the entire circuit. Chain rule says that the gate should take that gradient and multiply it into every gradient it normally computes for all of its inputs. Backpropagation can thus be thought of as gates communicating to each other (through the gradient signal) whether they want their outputs to increase or decrease (and how strongly), so as to make the final output value higher.</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>The derivative of each variable. Note that the derivative really tells you sensitivity of the whole expression to its value. Often, we use the term 'gradient on x' in stead of the technically correct phrase 'the partial derivative of x'</t>
+  </si>
+  <si>
+    <t>In mathematics and computer algebra, automatic differentiation (AD), also called algorithmic differentiation, computational differentiation,[1][2] auto-differentiation, or simply autodiff, is a set of techniques to numerically evaluate the derivative of a function specified by a computer program. Relevant to computation of gradients for backward passes because, in reality, that's all a gradient is -&gt; the derivative (rate of change)of the activation function with respect to the variable (input -&gt; output) in question. See CS231n reference</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Automatic_differentiation
+https://cs231n.github.io/optimization-2/</t>
+  </si>
+  <si>
+    <t>https://cs231n.github.io/optimization-2/</t>
+  </si>
+  <si>
+    <t>A computational graph is defined as a directed graph where the nodes correspond to mathematical operations. They are a way of expressing and evaluating a mathematical expression. See the examples in the attacehd reference. Kind of like a n abstract tree but usually referencing only the algorithm used in backpropogation</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/python_deep_learning/python_deep_learning_computational_graphs.htm#:~:text=A%20computational%20graph%20is%20defined,and%20evaluating%20a%20mathematical%20expression.</t>
+  </si>
+  <si>
+    <t>optimization</t>
+  </si>
+  <si>
+    <t>fitting 'learnable' parameters in 'layers' of computation that are needed for DL in large networks</t>
+  </si>
+  <si>
+    <t>torch.Tensor</t>
+  </si>
+  <si>
+    <t>A multidimensional array with support for autograd operations like 'backward()'</t>
+  </si>
+  <si>
+    <t>nn.Module</t>
+  </si>
+  <si>
+    <t>nn.Parameter</t>
+  </si>
+  <si>
+    <t>A kind of tensor that is automatically registered as a parameter when assigned as an atribute to a nn.Module</t>
+  </si>
+  <si>
+    <t>autograd.Function</t>
+  </si>
+  <si>
+    <t>Implements forward and backward definitions of an autograd operation. Every Tensor operation creates at least a single Function node that connects to functions that created a Tensor and encondes its history</t>
+  </si>
+  <si>
+    <t>From PyTorch Blitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueral Network model. Convenient way of encapsulating parameters with helpers for moving them to GPU, explorting, loading etc…. </t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>The nn package defines a set of Modules, which are roughly equivalent to neural network layers. A Module receives input Tensors and computes output Tensors, but may also hold internal state such as Tensors containing learnable parameters. The nn package also defines a set of useful loss functions that are commonly used when training neural networks.</t>
+  </si>
+  <si>
+    <t>https://pytorch.org/tutorials/beginner/pytorch_with_examples.html</t>
+  </si>
+  <si>
+    <t>optim</t>
+  </si>
+  <si>
+    <t>The optim package in PyTorch abstracts the idea of an optimization algorithm and provides implementations of commonly used optimization algorithms. This is used to automatically updates the weights of models by mutating the Tensors holding the learnable parameters. Necessary for large network training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,6 +655,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,10 +700,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -309,8 +715,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +741,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>2298700</xdr:rowOff>
@@ -374,13 +785,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>1592594</xdr:rowOff>
@@ -418,13 +829,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>14900</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1828801</xdr:rowOff>
@@ -462,13 +873,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>737096</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>203199</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>1739900</xdr:rowOff>
@@ -506,13 +917,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>33783</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>2324100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>1752600</xdr:rowOff>
@@ -550,13 +961,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>34436</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>634999</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -584,6 +995,138 @@
         <a:xfrm>
           <a:off x="11515236" y="13525500"/>
           <a:ext cx="3077063" cy="2730500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5239898-4783-E04A-B2E8-925220093605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13525500" y="24053800"/>
+          <a:ext cx="8890000" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1346199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84F3698-FC21-2A47-B060-7706068AD9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13601700" y="24846528"/>
+          <a:ext cx="2870200" cy="1328171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499C9764-9B37-4D40-B6E3-CD7685415114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13703300" y="28663901"/>
+          <a:ext cx="2222500" cy="995628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,342 +1435,1143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE15437-E41D-E04A-A09C-69A5835F916E}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="118.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="118.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="145" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="187" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="217" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="217" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="146" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="146" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="D27" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>52</v>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="107" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D34" r:id="rId1" xr:uid="{9CA7D982-5CCD-0A4F-81C8-97FA4015A271}"/>
+    <hyperlink ref="D37" r:id="rId2" xr:uid="{9BA37BFE-DD8D-A748-A571-8B97BCBCFFB3}"/>
+    <hyperlink ref="D38" r:id="rId3" xr:uid="{F94E38C8-267C-1844-B4A8-67E1D38E14CF}"/>
+    <hyperlink ref="D41" r:id="rId4" location="torch.Tensor.backward" xr:uid="{18858057-9D24-1749-B54B-DACAB07359D4}"/>
+    <hyperlink ref="D42" r:id="rId5" xr:uid="{8B0A9B8A-4864-E045-831B-A293D683CC0C}"/>
+    <hyperlink ref="D43" r:id="rId6" xr:uid="{27965C27-7E28-F04B-A0AF-84EE9A77DD0F}"/>
+    <hyperlink ref="D44" r:id="rId7" xr:uid="{BA688BBC-BE8A-CB4F-946F-E25A4CDDD348}"/>
+    <hyperlink ref="D45" r:id="rId8" xr:uid="{1C40B8DE-3439-164B-8F5F-11079D16EAA7}"/>
+    <hyperlink ref="D46" r:id="rId9" xr:uid="{01271D69-CE81-9842-9A78-55B0C2789BE1}"/>
+    <hyperlink ref="D47" r:id="rId10" xr:uid="{8C736FF8-4EDC-4F43-A417-84F4574AAD67}"/>
+    <hyperlink ref="D48" r:id="rId11" xr:uid="{335DB378-6D54-8B4F-B4DA-048508AD46F5}"/>
+    <hyperlink ref="D49" r:id="rId12" xr:uid="{13A6CE3C-BBDB-3C49-B8FD-7568555030DD}"/>
+    <hyperlink ref="D51" r:id="rId13" xr:uid="{F5E4C661-89AE-B145-9E97-DE1A1027F665}"/>
+    <hyperlink ref="D52" r:id="rId14" xr:uid="{EDDEF9BB-9303-E041-B66C-20BD59BDA791}"/>
+    <hyperlink ref="D53" r:id="rId15" xr:uid="{8A05C150-6E1A-AD49-8E17-EE73BB11DD40}"/>
+    <hyperlink ref="D54" r:id="rId16" xr:uid="{BF0A5497-65AD-1E4F-8FE4-CAE6B13337A1}"/>
+    <hyperlink ref="D55" r:id="rId17" xr:uid="{CA6A525E-52E3-7D41-A879-46F3035CB6D0}"/>
+    <hyperlink ref="D61" r:id="rId18" xr:uid="{5C47B929-ACE0-F04D-8C8D-F2319F7DCB2D}"/>
+    <hyperlink ref="D63" r:id="rId19" location=":~:text=in%20deep%20learning.-,Layer,output%20to%20the%20next%20layer." xr:uid="{E8B33EF6-3E7A-4E4E-859D-C5A53B586C6C}"/>
+    <hyperlink ref="D62" r:id="rId20" xr:uid="{C8ABCF05-8A81-EC49-BE8C-431CBBDCD5B0}"/>
+    <hyperlink ref="D64" r:id="rId21" xr:uid="{69E659C5-55D0-DD4F-859E-F380004065EA}"/>
+    <hyperlink ref="D59" r:id="rId22" display="https://en.wikipedia.org/wiki/Automatic_differentiation" xr:uid="{0187196E-0A06-F24B-8B58-BD519091AB8A}"/>
+    <hyperlink ref="D73" r:id="rId23" xr:uid="{6206A35A-17A4-0341-B013-C33603A0DCE4}"/>
+    <hyperlink ref="D60" r:id="rId24" location=":~:text=A%20computational%20graph%20is%20defined,and%20evaluating%20a%20mathematical%20expression." xr:uid="{4C6DF1A4-D330-024C-B1C3-FBD8E330557C}"/>
+    <hyperlink ref="D56" r:id="rId25" xr:uid="{005159C0-CFEE-FD4C-ABCB-6ED12375FE0F}"/>
+    <hyperlink ref="D57" r:id="rId26" xr:uid="{AE605249-9C8D-564B-B48B-4121291E2C41}"/>
+    <hyperlink ref="D58" r:id="rId27" xr:uid="{234018A0-135E-B847-BB4B-20E7F8974BCE}"/>
+    <hyperlink ref="D79" r:id="rId28" xr:uid="{C6188234-CED4-7743-8DB9-F96D637059F8}"/>
+    <hyperlink ref="D80" r:id="rId29" xr:uid="{24D875C4-3547-F34B-96B6-576040D4035F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>